--- a/wordle game/wordle_project/word/run.xlsx
+++ b/wordle game/wordle_project/word/run.xlsx
@@ -1,47 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="15855" windowHeight="7425"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>glass</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -354,20 +408,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>knife</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>spoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>clean</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>touch</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>worry</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>baker</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lucky</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>clock</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>story</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>earth</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cheek</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>dream</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hurry</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teach</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>think</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>foggy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>bring</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>knock</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>album</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ruler</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>piece</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>scary</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/wordle game/wordle_project/word/run.xlsx
+++ b/wordle game/wordle_project/word/run.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>glass</t>
         </is>
@@ -599,14 +611,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>march</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>april</t>
         </is>
       </c>
     </row>
